--- a/DPFC.xlsx
+++ b/DPFC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.997747416602161</v>
+        <v>1.999261637569952</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.840930768296396</v>
+        <v>5.002747242979501</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.499379502518033</v>
+        <v>1.494669147767712</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.980201578824309</v>
+        <v>2.002074297553295</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.996790313399324</v>
+        <v>2.99842739287225</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.511570770296895</v>
+        <v>9.809018088085843</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.497545220264543</v>
+        <v>2.495113711336798</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.983047536379725</v>
+        <v>5.000695435558288</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.995936115561737</v>
+        <v>6.996130168550353</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.925771423815886</v>
+        <v>3.005236497368892</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.971958419146137</v>
+        <v>7.999785205172076</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.996394132407404</v>
+        <v>6.995330434423168</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.811361911211341</v>
+        <v>7.011586898085239</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.981905423989931</v>
+        <v>8.000107030138379</v>
       </c>
       <c r="AX5" t="n">
-        <v>24.99521561180451</v>
+        <v>24.96497259743345</v>
       </c>
     </row>
     <row r="6">
@@ -1285,64 +1285,672 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
+        <v>1.997747416602161</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.840930768296396</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.499379502518033</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.980201578824309</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.996790313399324</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.511570770296895</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.497545220264543</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.983047536379725</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>6.995936115561737</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.925771423815886</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>7.971958419146137</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>6.996394132407404</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.811361911211341</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.981905423989931</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>24.99521561180451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>1.997447003072019</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF7" t="n">
         <v>4.943967761825341</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG7" t="n">
         <v>1.499302234617907</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH7" t="n">
         <v>1.977570426538072</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI7" t="n">
         <v>2.9963552332609</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ7" t="n">
         <v>9.621856763753753</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK7" t="n">
         <v>2.497225399181198</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL7" t="n">
         <v>4.980755419772867</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>6.995378012997323</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR7" t="n">
         <v>2.912328666259538</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS7" t="n">
         <v>7.968242823163987</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT7" t="n">
         <v>6.995887717881389</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU7" t="n">
         <v>6.814174642293287</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
         <v>7.979485940959048</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX7" t="n">
         <v>24.994525371803</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.999421254764853</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.002058270996589</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.499379082219786</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.997976531472806</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.999087607382453</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.80681942357997</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.497618584063408</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4.993515985501937</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>6.998233251343992</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>3.004139437066732</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>7.975891942028937</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6.998078538750865</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.009255307934054</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.987173518408452</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>24.99546361193111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.997808814171494</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4.999742837350764</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.498343355450996</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.985211203970277</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.996569161626959</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.79940117185013</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.492913079425824</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.926247844020034</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>6.994327132826291</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3.000372725758017</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>7.884760929797531</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6.993675885148651</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.001216542851614</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.814606725688613</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>24.98489540677112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.999185649511073</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.001442907322246</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.499613255829203</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.994457911611311</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.998879052393647</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.804856022196658</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.498661425684237</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.979836039724882</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>6.998443580201568</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3.003152277973725</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>7.986885905589596</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6.998634913173456</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.00715239286827</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7.987112923723141</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>24.9977605511961</v>
       </c>
     </row>
   </sheetData>

--- a/DPFC.xlsx
+++ b/DPFC.xlsx
@@ -677,28 +677,28 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.988106301273909</v>
+        <v>1.988812690129717</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.002644118660079</v>
+        <v>5.002341952423378</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.499238567698568</v>
+        <v>1.499300929008938</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.001733513297204</v>
+        <v>2.001492670014676</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.990245739665291</v>
+        <v>2.990834666152025</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.808681365967384</v>
+        <v>9.807676629786016</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.496976838929</v>
+        <v>2.497195124275163</v>
       </c>
       <c r="AL2" t="n">
-        <v>5.000993498494549</v>
+        <v>5.000845609831945</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.940391694661846</v>
+        <v>6.943578497506372</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.005050296644383</v>
+        <v>3.004449318230058</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.000720131452928</v>
+        <v>8.000555435221944</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.973478171347579</v>
+        <v>6.975000240178828</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.011181713781403</v>
+        <v>7.009851242257421</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.000641637565851</v>
+        <v>8.000524649920374</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.99401272789937</v>
+        <v>24.99443210001873</v>
       </c>
     </row>
     <row r="3">
@@ -829,28 +829,28 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.991212983296836</v>
+        <v>1.988106307019173</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.001871793093126</v>
+        <v>5.002643987487595</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.498307545083183</v>
+        <v>1.499238468940876</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.000528295838383</v>
+        <v>2.001733474614216</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.982188455508835</v>
+        <v>2.990245742158528</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.806134101033592</v>
+        <v>9.808681146327281</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.492662278976948</v>
+        <v>2.496976781263152</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.999663748324901</v>
+        <v>5.000993427360235</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -865,28 +865,28 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.954823008209178</v>
+        <v>6.940391839829994</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.0035704807774</v>
+        <v>3.005050261980754</v>
       </c>
       <c r="AS3" t="n">
-        <v>7.997227917865112</v>
+        <v>8.000720165163369</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.935991193758907</v>
+        <v>6.973478288224435</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.007922247460012</v>
+        <v>7.011181612432256</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.998670714436996</v>
+        <v>8.000641757754366</v>
       </c>
       <c r="AX3" t="n">
-        <v>24.98422353918728</v>
+        <v>24.99401766325901</v>
       </c>
     </row>
     <row r="4">
@@ -981,28 +981,28 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.988812692121256</v>
+        <v>1.991217433484082</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.002341951327952</v>
+        <v>5.001866410454929</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.499300929158481</v>
+        <v>1.498308525881661</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.001492669871186</v>
+        <v>2.000523519080654</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.990834669961279</v>
+        <v>2.982197462387963</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.807676627058649</v>
+        <v>9.806116323976628</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.497195125632993</v>
+        <v>2.492665765909226</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.000845608868747</v>
+        <v>4.999660681721506</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1017,28 +1017,28 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.943578508404608</v>
+        <v>6.954844093063407</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.004449317086481</v>
+        <v>3.003560039719789</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.000555434016363</v>
+        <v>7.997224018801608</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.975000254668252</v>
+        <v>6.93601793874301</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.009851239759079</v>
+        <v>7.007899156890946</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.000524647961736</v>
+        <v>7.998668019648923</v>
       </c>
       <c r="AX4" t="n">
-        <v>24.99443209234225</v>
+        <v>24.98422989707093</v>
       </c>
     </row>
     <row r="5">
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.999261637569952</v>
+        <v>1.997747377903872</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.002747242979501</v>
+        <v>4.840930583347317</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.494669147767712</v>
+        <v>1.499379467349168</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.002074297553295</v>
+        <v>1.980201489242369</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.99842739287225</v>
+        <v>2.996790257029089</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.809018088085843</v>
+        <v>9.511570138447105</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.495113711336798</v>
+        <v>2.497545163497704</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.000695435558288</v>
+        <v>4.983047385009406</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.996130168550353</v>
+        <v>6.995936006786258</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.005236497368892</v>
+        <v>2.925771171798415</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.999785205172076</v>
+        <v>7.971958184529921</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.995330434423168</v>
+        <v>6.996394031587585</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.011586898085239</v>
+        <v>6.811361326689334</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.000107030138379</v>
+        <v>7.981905237880403</v>
       </c>
       <c r="AX5" t="n">
-        <v>24.96497259743345</v>
+        <v>24.995215196717</v>
       </c>
     </row>
     <row r="6">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.997747416602161</v>
+        <v>1.997446935238706</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.840930768296396</v>
+        <v>4.943967602813844</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.499379502518033</v>
+        <v>1.499302149964097</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.980201578824309</v>
+        <v>1.977570396488696</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.996790313399324</v>
+        <v>2.996355139861779</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.511570770296895</v>
+        <v>9.621856282773937</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.497545220264543</v>
+        <v>2.497225361575417</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.983047536379725</v>
+        <v>4.980755319213705</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1321,28 +1321,28 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.995936115561737</v>
+        <v>6.995377810555478</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.925771423815886</v>
+        <v>2.912328523528476</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.971958419146137</v>
+        <v>7.968242546473689</v>
       </c>
       <c r="AT6" t="n">
-        <v>6.996394132407404</v>
+        <v>6.995887562858992</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.811361911211341</v>
+        <v>6.814174285617884</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.981905423989931</v>
+        <v>7.979485594031673</v>
       </c>
       <c r="AX6" t="n">
-        <v>24.99521561180451</v>
+        <v>24.99452237718795</v>
       </c>
     </row>
     <row r="7">
@@ -1437,28 +1437,28 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.997447003072019</v>
+        <v>1.999261642462369</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.943967761825341</v>
+        <v>5.002747143401664</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.499302234617907</v>
+        <v>1.49466916581135</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.977570426538072</v>
+        <v>2.002074304422323</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.9963552332609</v>
+        <v>2.998427399586761</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.621856763753753</v>
+        <v>9.80901796180169</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.497225399181198</v>
+        <v>2.495113736469453</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.980755419772867</v>
+        <v>5.000695448898338</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1473,28 +1473,28 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6.995378012997323</v>
+        <v>6.996130217176344</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.912328666259538</v>
+        <v>3.00523650123624</v>
       </c>
       <c r="AS7" t="n">
-        <v>7.968242823163987</v>
+        <v>7.999785278755438</v>
       </c>
       <c r="AT7" t="n">
-        <v>6.995887717881389</v>
+        <v>6.995330480812901</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.814174642293287</v>
+        <v>7.011586884029583</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.979485940959048</v>
+        <v>8.000107095832005</v>
       </c>
       <c r="AX7" t="n">
-        <v>24.994525371803</v>
+        <v>24.96497295100884</v>
       </c>
     </row>
     <row r="8">
@@ -1589,28 +1589,28 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.999421254764853</v>
+        <v>1.999185912432974</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.002058270996589</v>
+        <v>5.001443579148183</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.499379082219786</v>
+        <v>1.499612964532955</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.997976531472806</v>
+        <v>1.994458271359757</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.999087607382453</v>
+        <v>2.998879411870273</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.80681942357997</v>
+        <v>9.804857434068733</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.497618584063408</v>
+        <v>2.498661199742564</v>
       </c>
       <c r="AL8" t="n">
-        <v>4.993515985501937</v>
+        <v>4.97983717252726</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1625,28 +1625,28 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.998233251343992</v>
+        <v>6.998444655220474</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.004139437066732</v>
+        <v>3.003152674313094</v>
       </c>
       <c r="AS8" t="n">
-        <v>7.975891942028937</v>
+        <v>7.986887326670201</v>
       </c>
       <c r="AT8" t="n">
-        <v>6.998078538750865</v>
+        <v>6.998635828452812</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.009255307934054</v>
+        <v>7.007153353453767</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.987173518408452</v>
+        <v>7.987114610619692</v>
       </c>
       <c r="AX8" t="n">
-        <v>24.99546361193111</v>
+        <v>24.99778801816252</v>
       </c>
     </row>
     <row r="9">
@@ -1741,28 +1741,28 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.997808814171494</v>
+        <v>1.999421458623799</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.999742837350764</v>
+        <v>5.002058635359543</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.498343355450996</v>
+        <v>1.499379154587368</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.985211203970277</v>
+        <v>1.997976696457897</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.996569161626959</v>
+        <v>2.999087909322405</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.79940117185013</v>
+        <v>9.806820305649737</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.492913079425824</v>
+        <v>2.49761875171303</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.926247844020034</v>
+        <v>4.993516403654814</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1777,28 +1777,28 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.994327132826291</v>
+        <v>6.998233959114784</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.000372725758017</v>
+        <v>3.004139715410787</v>
       </c>
       <c r="AS9" t="n">
-        <v>7.884760929797531</v>
+        <v>7.975892529267494</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.993675885148651</v>
+        <v>6.998079219487449</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.001216542851614</v>
+        <v>7.00925597373524</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.814606725688613</v>
+        <v>7.987174179627929</v>
       </c>
       <c r="AX9" t="n">
-        <v>24.98489540677112</v>
+        <v>24.99545710173446</v>
       </c>
     </row>
     <row r="10">
@@ -1893,28 +1893,28 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.999185649511073</v>
+        <v>1.997808741814874</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.001442907322246</v>
+        <v>4.999741920701503</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.499613255829203</v>
+        <v>1.498343337598271</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.994457911611311</v>
+        <v>1.985211072732041</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.998879052393647</v>
+        <v>2.996569056695086</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.804856022196658</v>
+        <v>9.799399266453973</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.498661425684237</v>
+        <v>2.492913015846947</v>
       </c>
       <c r="AL10" t="n">
-        <v>4.979836039724882</v>
+        <v>4.926247600686876</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1929,28 +1929,28 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.998443580201568</v>
+        <v>6.994326909474335</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.003152277973725</v>
+        <v>3.000372186663248</v>
       </c>
       <c r="AS10" t="n">
-        <v>7.986885905589596</v>
+        <v>7.884760541728202</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.998634913173456</v>
+        <v>6.993675677601517</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.00715239286827</v>
+        <v>7.001215237194405</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.987112923723141</v>
+        <v>7.814606441217087</v>
       </c>
       <c r="AX10" t="n">
-        <v>24.9977605511961</v>
+        <v>24.98489237795063</v>
       </c>
     </row>
   </sheetData>
